--- a/src/test/resources/testdata/SugarCRM.xlsx
+++ b/src/test/resources/testdata/SugarCRM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bharat_WORKSPACE\8_GITHUB\FRAMEWORKS\TestAutomationDemo\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bharat_WORKSPACE\8_GITHUB\1_FRAMEWORKS\TestNG_Framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A65011-572F-4A68-8674-96CA3E4181BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB47FF8-2CAD-48D2-9097-4131B25FFCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>To_Delete_a_Lead_in_SugarCRM</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
   </si>
   <si>
     <t>TestScript_Name</t>
+  </si>
+  <si>
+    <t>ExecuteScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -208,6 +208,12 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +593,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,10 +623,10 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>41</v>
@@ -693,8 +702,8 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>48</v>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>43</v>
@@ -770,8 +779,8 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>43</v>
@@ -847,8 +856,8 @@
       <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>43</v>

--- a/src/test/resources/testdata/SugarCRM.xlsx
+++ b/src/test/resources/testdata/SugarCRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bharat_WORKSPACE\8_GITHUB\1_FRAMEWORKS\TestNG_Framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB47FF8-2CAD-48D2-9097-4131B25FFCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A6B12-AD58-4122-823D-93AAAE0255F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="15375" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SugarCRM_Lead" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Office_Phone</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>ExecuteScript</t>
+  </si>
+  <si>
+    <t>SampleTest</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -926,6 +929,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="X2" r:id="rId1" xr:uid="{FCA9F04B-D262-4961-A64A-13753097DA40}"/>
